--- a/Documentation/Visualizations/Chronik_Collectors_Kamerun.xlsx
+++ b/Documentation/Visualizations/Chronik_Collectors_Kamerun.xlsx
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -540,42 +540,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>Ziemann</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gustav Zenker; G. Zenker</t>
+          <t>Dr. Ziemann; Prof. Dr. Ziemann</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ziemann</t>
+          <t>Zenker</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Dr. Ziemann</t>
+          <t>Gustav Zenker; G. Zenker</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -596,18 +596,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hauptmann Langheld; Major Langheld; F. Langheld</t>
+          <t>Major Langheld; F. Langheld; Hauptmann Langheld</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Conradt</t>
+          <t>Glauning</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -617,39 +617,39 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>L. Conradt</t>
+          <t>Hauptmann Glauning</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Knobloch</t>
+          <t>Paschen</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>von Knobloch; v. Knobloch</t>
+          <t>H. Paschen</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glauning</t>
+          <t>Conradt</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -659,39 +659,39 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hauptmann Glauning</t>
+          <t>L. Conradt</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paschen</t>
+          <t>Knobloch</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>H. Paschen</t>
+          <t>von Knobloch; v. Knobloch</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stuhlmann</t>
+          <t>Leutnant Jacob</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Dr. Stuhlmann</t>
+          <t>Oberleutnant Jacob</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -750,11 +750,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Diehl</t>
+          <t>Strunk</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -764,18 +764,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A. Diehl</t>
+          <t>Dr. Strunk</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hösemann</t>
+          <t>Stuhlmann</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -785,18 +785,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dr. Hösemann</t>
+          <t>Dr. Stuhlmann</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Schulz</t>
+          <t>Dr. Guillemain</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -804,16 +804,12 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>L. Schulz; Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Strunk</t>
+          <t>Hösemann</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -827,14 +823,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Strunk</t>
+          <t>Dr. Hösemann</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leutnant Jacob</t>
+          <t>Schulz</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -848,18 +844,18 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oberleutnant Jacob</t>
+          <t>Leutnant Schulz; L. Schulz; Nachlaß des Herrn Leutnant Schulz</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Rudatis</t>
+          <t>Diehl</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -869,7 +865,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>H. Rudatis</t>
+          <t>A. Diehl</t>
         </is>
       </c>
     </row>
@@ -893,7 +889,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gres. N. W. Kamerun</t>
+          <t>Rudatis</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -907,18 +903,18 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Gesellschaft Nordwest- Kamerun; Gesellschaft für das nordwestliche Kamerun</t>
+          <t>H. Rudatis</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Smend</t>
+          <t>Gres. N. W. Kamerun</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -926,7 +922,11 @@
       <c r="D22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gesellschaft Nordwest- Kamerun; Gesellschaft für das nordwestliche Kamerun</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -979,18 +979,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dr. Preuß; Prof. Dr. Preuß</t>
+          <t>Prof. Dr. Preuß; Dr. Preuß</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dr. Emin Pascha</t>
+          <t>Stift</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -998,16 +998,20 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Bauleiter Stift</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Stift</t>
+          <t>Smend</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1020,11 +1024,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Techow</t>
+          <t>Heims</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1032,12 +1036,16 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>E. Heims; Ernst Heims; Tiermaler Heims</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>von Carnap</t>
+          <t>Dr. Emin Pascha</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1049,16 +1057,12 @@
       <c r="D29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Lieutenant von Carnap</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Waldow</t>
+          <t>Dr. Büttner</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1070,16 +1074,12 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>v. Waldow</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hoesemann</t>
+          <t>Techow</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1091,16 +1091,12 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Dr. Hoesemann</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scheunemann</t>
+          <t>Hoesemann</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1114,14 +1110,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Hauptmann Scheunemann; Oberleutnant Scheunemann</t>
+          <t>Dr. Hoesemann</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dr. Büttner</t>
+          <t>Scheunemann</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1133,12 +1129,16 @@
       <c r="D33" t="n">
         <v>0</v>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Hauptmann Scheunemann; Oberleutnant Scheunemann</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>E. Heims</t>
+          <t>Oberarzt Freyer</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1152,18 +1152,18 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ernst Heims; Tiermaler Heims</t>
+          <t>Stabsarzt Dr. Freyer; Oberarzt Dr. Freyer</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hauptmann Kling</t>
+          <t>Oberleutnant Adametz</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1176,11 +1176,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dr. Haberer</t>
+          <t>Waldow</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Regierungsrat Professor Dr. Haberer</t>
+          <t>v. Waldow</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lehmann</t>
+          <t>von Carnap</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -1211,14 +1211,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>E. J. Lehmann</t>
+          <t>Lieutenant von Carnap</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Methner</t>
+          <t>Hauptmann Kling</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1235,7 +1235,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dr. Guillemain</t>
+          <t>G. Schmidt</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1247,7 +1247,11 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Geo Schmidt</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1273,7 +1277,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>v. Örtzen</t>
+          <t>Dempwolff</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1285,16 +1289,12 @@
       <c r="D41" t="n">
         <v>0</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Leutnant von Örtzen</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oberleutnant Adametz</t>
+          <t>Lehmann</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1306,12 +1306,16 @@
       <c r="D42" t="n">
         <v>0</v>
       </c>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>E. J. Lehmann</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Hauptmann Strümpell</t>
+          <t>Meinhof</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1323,16 +1327,12 @@
       <c r="D43" t="n">
         <v>0</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Oberleutnant Strümpell</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dempwolff</t>
+          <t>Dr. Haberer</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1344,12 +1344,16 @@
       <c r="D44" t="n">
         <v>0</v>
       </c>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Regierungsrat Professor Dr. Haberer</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>W. Heim</t>
+          <t>Methner</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1366,7 +1370,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Meinhof</t>
+          <t>W. Heim</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1383,7 +1387,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>G. Schmidt</t>
+          <t>v. Örtzen</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1397,14 +1401,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Geo Schmidt</t>
+          <t>Leutnant von Örtzen</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dr. Biedermann-Imhoof</t>
+          <t>Dr. Monke</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1421,7 +1425,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Leutnant von Oertzen</t>
+          <t>Hauptmann Strümpell</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1435,14 +1439,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oberleutnant von Oertzen</t>
+          <t>Oberleutnant Strümpell</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>v. Kamptz</t>
+          <t>Oberleutnant von Stein</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1456,35 +1460,31 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Major von Kamptz</t>
+          <t>Ltn. v. Stegmann und Stein</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nolte</t>
+          <t>Dr. Biedermann-Imhoof</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Hauptmann Nolte</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>v. Bülow</t>
+          <t>Leutnant von Oertzen</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1498,14 +1498,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oberleutnant von Bülow</t>
+          <t>Oberleutnant von Oertzen</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Hesselbarth</t>
+          <t>v. Kamptz</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1517,12 +1517,16 @@
       <c r="D53" t="n">
         <v>0</v>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Major von Kamptz</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Oberleutnant von Stein</t>
+          <t>v. Bülow</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1536,18 +1540,18 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ltn. v. Stegmann und Stein</t>
+          <t>Oberleutnant von Bülow</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lichtwardt</t>
+          <t>Hesselbarth</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -1560,11 +1564,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Museum in Stockholm</t>
+          <t>Nolte</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -1572,12 +1576,16 @@
       <c r="D56" t="n">
         <v>1</v>
       </c>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Hauptmann Nolte</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dr. Monke</t>
+          <t>Krahl</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1594,7 +1602,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Schwarz</t>
+          <t>Plehe</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1611,7 +1619,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>von Erffa</t>
+          <t>Schwester Elise</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1628,7 +1636,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dr. Fleischer</t>
+          <t>Kersting</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1645,7 +1653,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dr. Fülleborn</t>
+          <t>Tischler</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1662,7 +1670,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Glaue</t>
+          <t>Ziemsen</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1679,7 +1687,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>von Königswald</t>
+          <t>Dr. Weissenborn</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1696,7 +1704,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Küster</t>
+          <t>Premierlieutenant Morgen</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1713,7 +1721,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Merker</t>
+          <t>Blochmann</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1730,7 +1738,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Nigmann</t>
+          <t>Grünberg</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1747,7 +1755,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dr. Philipps</t>
+          <t>Kreyenberg</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1764,7 +1772,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Schillings</t>
+          <t>Needham</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1781,7 +1789,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Schröder</t>
+          <t>Strauch</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1798,7 +1806,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Dr. Schröter</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1815,7 +1823,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Treffurth</t>
+          <t>von Erffa</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1832,7 +1840,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>von Berger</t>
+          <t>Dr. Fleischer</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1849,7 +1857,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Oberleutnant Adamez</t>
+          <t>Dr. Fülleborn</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1866,7 +1874,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dr. Stolowsky</t>
+          <t>Glaue</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1883,7 +1891,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Oberleutnant Förster</t>
+          <t>von Königswald</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1900,7 +1908,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Oberleutnant von Carnap-Quernheimb</t>
+          <t>Küster</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1917,7 +1925,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Oberarzt Dr. Frever</t>
+          <t>Merker</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1934,7 +1942,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Riggenbach</t>
+          <t>Nigmann</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1951,7 +1959,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Leutnant Schipper</t>
+          <t>Dr. Philipps</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1968,7 +1976,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Brauer</t>
+          <t>Schillings</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1985,7 +1993,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Zimmermann</t>
+          <t>Schröder</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2002,7 +2010,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>von Puttkamer</t>
+          <t>Dr. Schröter</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2019,7 +2027,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Strunck</t>
+          <t>Treffurth</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2036,7 +2044,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Stumpf</t>
+          <t>von Berger</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2053,7 +2061,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Dr. Weissenborn</t>
+          <t>auswärtige Amt</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2070,7 +2078,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Premierlieutenant Morgen</t>
+          <t>Oberleutnant Adamez</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2087,7 +2095,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Hauptmann von Restorff</t>
+          <t>Dr. Stolowsky</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2104,7 +2112,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Stabsarzt Dr. Freyer</t>
+          <t>Leutnant Trefurth</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2121,7 +2129,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Bezirksamtmann Krücke</t>
+          <t>Oberleutnant von Carnap-Quernheimb</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2138,7 +2146,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>F. Ulrich</t>
+          <t>Dr. v. Faber</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2155,7 +2163,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>auswärtige Amt</t>
+          <t>Brauer</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2172,7 +2180,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ziemsen</t>
+          <t>Zimmermann</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2189,7 +2197,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Konrau</t>
+          <t>Gesellschaft „Nordwest - Kamerun“</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2206,7 +2214,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Beamten</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2223,7 +2231,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Reisenden</t>
+          <t>Frobenius</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2240,7 +2248,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Baumeister Planer</t>
+          <t>v. Bessel</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2257,7 +2265,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Dr. Strunek</t>
+          <t>Konrau</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2274,7 +2282,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Umlauff</t>
+          <t>Lichtwardt</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2291,24 +2299,24 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Biologischen Abteilung des Kaiserlichen Gesundheits-Amtes</t>
+          <t>Museum in Stockholm</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Laatsch</t>
+          <t>Oberleutnant Förster</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2325,7 +2333,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Blochmann</t>
+          <t>Oberarzt Dr. Frever</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2342,7 +2350,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Grünberg</t>
+          <t>Riggenbach</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2359,7 +2367,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kreyenberg</t>
+          <t>Leutnant Schipper</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2376,7 +2384,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Needham</t>
+          <t>Dr. Baumgart</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2393,7 +2401,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Strauch</t>
+          <t>Oberleutnant Faupel</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2410,7 +2418,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>H. v. Hansen</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2427,7 +2435,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gesellschaft „Nordwest - Kamerun“</t>
+          <t>Oberforster Haß</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2444,7 +2452,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dr. Baumgart</t>
+          <t>Dr. Hauchecorne</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2461,7 +2469,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Oberleutnant Faupel</t>
+          <t>Prof. Dr. Heymons</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2478,7 +2486,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>H. v. Hansen</t>
+          <t>Dr. Hoffmann</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2495,7 +2503,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Oberforster Haß</t>
+          <t>Dr. Kaschke</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2512,7 +2520,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Dr. Hauchecorne</t>
+          <t>Dr. Kasper</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2529,7 +2537,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Prof. Dr. Heymons</t>
+          <t>G. Krause</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2546,7 +2554,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Dr. Hoffmann</t>
+          <t>cand. P. Krüger</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2563,7 +2571,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Dr. Kaschke</t>
+          <t>stud. O. Kothe</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2580,7 +2588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Dr. Kasper</t>
+          <t>Freifrau v. Maltzan</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2597,7 +2605,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>G. Krause</t>
+          <t>Hauptmann v. d. Marwitz</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2614,7 +2622,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>cand. P. Krüger</t>
+          <t>K. Neunzig</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2631,7 +2639,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>stud. O. Kothe</t>
+          <t>P. Niedieck</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2648,7 +2656,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Freifrau v. Maltzan</t>
+          <t>Prof. Ohmann</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2665,7 +2673,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hauptmann v. d. Marwitz</t>
+          <t>Dr. Rechenbach</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2682,7 +2690,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K. Neunzig</t>
+          <t>A. Sachs</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2699,7 +2707,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>P. Niedieck</t>
+          <t>H. Schalow</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2716,7 +2724,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Prof. Ohmann</t>
+          <t>Hauptmann Stieber</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2733,7 +2741,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Dr. Rechenbach</t>
+          <t>Prof. Dr. Sjästedt</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2750,7 +2758,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A. Sachs</t>
+          <t>Kreistierarzt S. Tiarks</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2767,7 +2775,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>H. Schalow</t>
+          <t>Prof. Dr. Vossler</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2784,7 +2792,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Hauptmann Stieber</t>
+          <t>Hauptmann von Restorff</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2801,7 +2809,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Prof. Dr. Sjästedt</t>
+          <t>Baumeister Planer</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2818,7 +2826,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Kreistierarzt S. Tiarks</t>
+          <t>Dr. Strunek</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2835,7 +2843,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Prof. Dr. Vossler</t>
+          <t>Umlauff</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2852,7 +2860,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Krahl</t>
+          <t>Biologischen Abteilung des Kaiserlichen Gesundheits-Amtes</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2869,7 +2877,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Plehe</t>
+          <t>Schwarz</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2886,7 +2894,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Schwester Elise</t>
+          <t>von Puttkamer</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2903,7 +2911,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Kersting</t>
+          <t>Strunck</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2920,7 +2928,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Tischler</t>
+          <t>Stumpf</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2937,7 +2945,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Conrad</t>
+          <t>Laatsch</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2954,7 +2962,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>v. Bessel</t>
+          <t>Oberleutnant Laasch</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2971,7 +2979,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Conrau</t>
+          <t>Bezirksamtmann Krücke</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2988,7 +2996,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Frobenius</t>
+          <t>F. Ulrich</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3005,19 +3013,70 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Oberleutnant Laasch</t>
+          <t>Rosenberg</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Conrau</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Beamten</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Reisenden</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3152,7 +3211,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>von Carnap</t>
+          <t>Conrad</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3164,16 +3223,12 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Lieutenant von Carnap</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Conradt</t>
+          <t>von Carnap</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3187,14 +3242,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>L. Conradt</t>
+          <t>Lieutenant von Carnap</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Konrau</t>
+          <t>Conradt</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3206,12 +3261,16 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>L. Conradt</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Conrad</t>
+          <t>Konrau</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3313,14 +3372,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Ziemann</t>
+          <t>Dr. Ziemann; Prof. Dr. Ziemann</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>von Carnap</t>
+          <t>Ziemsen</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -3332,16 +3391,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lieutenant von Carnap</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ziemsen</t>
+          <t>v. Kamptz</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3353,7 +3408,11 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Major von Kamptz</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3379,7 +3438,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>v. Kamptz</t>
+          <t>von Carnap</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3393,7 +3452,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Major von Kamptz</t>
+          <t>Lieutenant von Carnap</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3620,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dr. Ziemann</t>
+          <t>Dr. Ziemann; Prof. Dr. Ziemann</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>v. Kamptz</t>
+          <t>Krahl</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3601,16 +3660,12 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Major von Kamptz</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>v. Bülow</t>
+          <t>Plehe</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3622,16 +3677,12 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Oberleutnant von Bülow</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Krahl</t>
+          <t>Zenker</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3643,12 +3694,16 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Gustav Zenker; G. Zenker</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Plehe</t>
+          <t>Schwester Elise</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3665,7 +3720,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>v. Bessel</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3677,16 +3732,12 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Gustav Zenker; G. Zenker</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Schwester Elise</t>
+          <t>v. Bülow</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3698,12 +3749,16 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Oberleutnant von Bülow</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>v. Bessel</t>
+          <t>v. Kamptz</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3715,7 +3770,11 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Major von Kamptz</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3997,40 +4056,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Schulz</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>L. Schulz; Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Schulz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Leutnant Schulz; L. Schulz; Nachlaß des Herrn Leutnant Schulz</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4049,7 +4108,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Preuß; Prof. Dr. Preuß</t>
+          <t>Prof. Dr. Preuß; Dr. Preuß</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4305,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hauptmann Langheld; Major Langheld; F. Langheld</t>
+          <t>Major Langheld; F. Langheld; Hauptmann Langheld</t>
         </is>
       </c>
     </row>
@@ -4288,7 +4347,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dr. Ziemann</t>
+          <t>Dr. Ziemann; Prof. Dr. Ziemann</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4459,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dempwolff</t>
+          <t>G. Schmidt</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4412,19 +4471,23 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Geo Schmidt</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>W. Heim</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -4434,7 +4497,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Meinhof</t>
+          <t>Dempwolff</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4451,7 +4514,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>G. Schmidt</t>
+          <t>Meinhof</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4463,11 +4526,7 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Geo Schmidt</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4506,14 +4565,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>W. Heim</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4523,7 +4582,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Brauer</t>
+          <t>Kersting</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4540,7 +4599,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Methner</t>
+          <t>Preuß</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4552,12 +4611,16 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Preuß; Dr. Preuß</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Zimmermann</t>
+          <t>Tischler</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4574,7 +4637,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Hoesemann</t>
+          <t>Blochmann</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4586,16 +4649,12 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Dr. Hoesemann</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Paschen</t>
+          <t>Grünberg</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4607,16 +4666,12 @@
       <c r="D21" t="n">
         <v>0</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>H. Paschen</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>von Puttkamer</t>
+          <t>Kreyenberg</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4633,7 +4688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Schulz</t>
+          <t>Lehmann</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4647,14 +4702,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>L. Schulz; Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
+          <t>E. J. Lehmann</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Strunck</t>
+          <t>Needham</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4671,7 +4726,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Blochmann</t>
+          <t>Strauch</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4688,7 +4743,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Grünberg</t>
+          <t>Williamson</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4705,7 +4760,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Kreyenberg</t>
+          <t>Brauer</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4722,7 +4777,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lehmann</t>
+          <t>Methner</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4734,16 +4789,12 @@
       <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>E. J. Lehmann</t>
-        </is>
-      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Needham</t>
+          <t>Zimmermann</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4760,7 +4811,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Strauch</t>
+          <t>Gesellschaft „Nordwest - Kamerun“</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4777,7 +4828,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Williamson</t>
+          <t>Hoesemann</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4789,12 +4840,16 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Dr. Hoesemann</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gesellschaft „Nordwest - Kamerun“</t>
+          <t>Paschen</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4806,12 +4861,16 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>H. Paschen</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kersting</t>
+          <t>von Puttkamer</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4828,7 +4887,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Preuß</t>
+          <t>Schulz</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4842,14 +4901,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Dr. Preuß; Prof. Dr. Preuß</t>
+          <t>Leutnant Schulz; L. Schulz; Nachlaß des Herrn Leutnant Schulz</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tischler</t>
+          <t>Strunck</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5033,7 +5092,11 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bauleiter Stift</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5059,7 +5122,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Diehl</t>
+          <t>Hösemann</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5073,14 +5136,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A. Diehl</t>
+          <t>Dr. Hösemann</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hösemann</t>
+          <t>Diehl</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5094,14 +5157,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dr. Hösemann</t>
+          <t>A. Diehl</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>von Erffa</t>
+          <t>Forster</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5113,12 +5176,16 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hauptmann Forster</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dr. Fleischer</t>
+          <t>Ziemann</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5130,12 +5197,16 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dr. Ziemann; Prof. Dr. Ziemann</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dr. Fülleborn</t>
+          <t>von Erffa</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5152,7 +5223,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Glaue</t>
+          <t>Dr. Fleischer</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5169,7 +5240,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dr. Haberer</t>
+          <t>Dr. Fülleborn</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5181,16 +5252,12 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Regierungsrat Professor Dr. Haberer</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>von Königswald</t>
+          <t>Glaue</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5207,7 +5274,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Küster</t>
+          <t>Dr. Haberer</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5219,12 +5286,16 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Regierungsrat Professor Dr. Haberer</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lehmann</t>
+          <t>von Königswald</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5236,16 +5307,12 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>E. J. Lehmann</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Merker</t>
+          <t>Küster</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5262,7 +5329,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Methner</t>
+          <t>Lehmann</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5274,12 +5341,16 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>E. J. Lehmann</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nigmann</t>
+          <t>Merker</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5296,7 +5367,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dr. Philipps</t>
+          <t>Methner</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5313,7 +5384,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Schillings</t>
+          <t>Nigmann</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5330,7 +5401,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Schröder</t>
+          <t>Dr. Philipps</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5347,7 +5418,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dr. Schröter</t>
+          <t>Schillings</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5364,7 +5435,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Smend</t>
+          <t>Schröder</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5381,7 +5452,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Techow</t>
+          <t>Dr. Schröter</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5398,7 +5469,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Treffurth</t>
+          <t>Smend</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5415,7 +5486,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>von Berger</t>
+          <t>Techow</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5432,7 +5503,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Forster</t>
+          <t>Treffurth</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5444,16 +5515,12 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Hauptmann Forster</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Oberleutnant Förster</t>
+          <t>von Berger</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5470,7 +5537,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Schulz</t>
+          <t>Oberleutnant Förster</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5482,16 +5549,12 @@
       <c r="D32" t="n">
         <v>0</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>L. Schulz; Leutnant Schulz; Nachlaß des Herrn Leutnant Schulz</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ziemann</t>
+          <t>Schulz</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5505,7 +5568,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dr. Ziemann</t>
+          <t>Leutnant Schulz; L. Schulz; Nachlaß des Herrn Leutnant Schulz</t>
         </is>
       </c>
     </row>
@@ -5566,32 +5629,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mansfeld</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Stabsarzt Dr. Mansfeld; Dr. Mansfeld</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Langheld</t>
+          <t>Mansfeld</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5601,18 +5660,18 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hauptmann Langheld; Major Langheld; F. Langheld</t>
+          <t>Stabsarzt Dr. Mansfeld; Dr. Mansfeld</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>v. Örtzen</t>
+          <t>Riegler</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -5622,18 +5681,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leutnant von Örtzen</t>
+          <t>Dr. Riegler</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leutnant Jacob</t>
+          <t>Langheld</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5643,18 +5702,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oberleutnant Jacob</t>
+          <t>Major Langheld; F. Langheld; Hauptmann Langheld</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dr. Monke</t>
+          <t>v. Örtzen</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -5662,16 +5721,20 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Leutnant von Örtzen</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Paschen</t>
+          <t>Leutnant Jacob</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5681,18 +5744,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>H. Paschen</t>
+          <t>Oberleutnant Jacob</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Riegler</t>
+          <t>Dr. Monke</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -5700,16 +5763,12 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Dr. Riegler</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Schwarz</t>
+          <t>Strunk</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5721,12 +5780,16 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Dr. Strunk</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>v. Bülow</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5740,14 +5803,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Gustav Zenker; G. Zenker</t>
+          <t>Oberleutnant von Bülow</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Strunk</t>
+          <t>Baumeister Planer</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5759,23 +5822,19 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Dr. Strunk</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Dr. Strunek</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -5785,7 +5844,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>v. Bülow</t>
+          <t>Umlauff</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5797,16 +5856,12 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Oberleutnant von Bülow</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Baumeister Planer</t>
+          <t>Biologischen Abteilung des Kaiserlichen Gesundheits-Amtes</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5823,7 +5878,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dr. Strunek</t>
+          <t>Paschen</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5835,12 +5890,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>H. Paschen</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Umlauff</t>
+          <t>Schwarz</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5857,7 +5916,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biologischen Abteilung des Kaiserlichen Gesundheits-Amtes</t>
+          <t>Zenker</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5869,7 +5928,11 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gustav Zenker; G. Zenker</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5882,7 +5945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5928,14 +5991,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dr. Biedermann-Imhoof</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5945,11 +6008,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Leutnant Jacob</t>
+          <t>Glauning</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -5959,35 +6022,39 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oberleutnant Jacob</t>
+          <t>Hauptmann Glauning</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Leutnant Jacob</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Oberleutnant Jacob</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Diehl</t>
+          <t>Dr. Biedermann-Imhoof</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -5995,20 +6062,16 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A. Diehl</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glauning</t>
+          <t>Strunk</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6018,14 +6081,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Hauptmann Glauning</t>
+          <t>Dr. Strunk</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Langheld</t>
+          <t>Frobenius</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6037,16 +6100,12 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Hauptmann Langheld; Major Langheld; F. Langheld</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leutnant von Oertzen</t>
+          <t>Dr. Baumgart</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6058,16 +6117,12 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Oberleutnant von Oertzen</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hauptmann von Restorff</t>
+          <t>Oberleutnant Faupel</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6084,7 +6139,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scheunemann</t>
+          <t>H. v. Hansen</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6096,16 +6151,12 @@
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Hauptmann Scheunemann; Oberleutnant Scheunemann</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>Oberforster Haß</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6117,16 +6168,12 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Gustav Zenker; G. Zenker</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dr. Baumgart</t>
+          <t>Dr. Hauchecorne</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6143,7 +6190,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Oberleutnant Faupel</t>
+          <t>Heims</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -6155,12 +6202,16 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>E. Heims; Ernst Heims; Tiermaler Heims</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>H. v. Hansen</t>
+          <t>Prof. Dr. Heymons</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -6177,7 +6228,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Oberforster Haß</t>
+          <t>Dr. Hoffmann</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6194,7 +6245,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dr. Hauchecorne</t>
+          <t>Dr. Kaschke</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6211,7 +6262,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>E. Heims</t>
+          <t>Dr. Kasper</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6223,16 +6274,12 @@
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Ernst Heims; Tiermaler Heims</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Prof. Dr. Heymons</t>
+          <t>G. Krause</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6249,7 +6296,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dr. Hoffmann</t>
+          <t>cand. P. Krüger</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -6266,7 +6313,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dr. Kaschke</t>
+          <t>stud. O. Kothe</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -6283,7 +6330,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dr. Kasper</t>
+          <t>Freifrau v. Maltzan</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -6300,7 +6347,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>G. Krause</t>
+          <t>Hauptmann v. d. Marwitz</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -6317,7 +6364,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cand. P. Krüger</t>
+          <t>K. Neunzig</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -6334,7 +6381,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>stud. O. Kothe</t>
+          <t>P. Niedieck</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -6351,7 +6398,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Freifrau v. Maltzan</t>
+          <t>Prof. Ohmann</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -6368,7 +6415,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hauptmann v. d. Marwitz</t>
+          <t>Preuß</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -6380,12 +6427,16 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Preuß; Dr. Preuß</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>K. Neunzig</t>
+          <t>Dr. Rechenbach</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -6402,7 +6453,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P. Niedieck</t>
+          <t>A. Sachs</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -6419,7 +6470,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Prof. Ohmann</t>
+          <t>H. Schalow</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6436,7 +6487,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Preuß</t>
+          <t>Hauptmann Stieber</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -6448,16 +6499,12 @@
       <c r="D30" t="n">
         <v>0</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Dr. Preuß; Prof. Dr. Preuß</t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dr. Rechenbach</t>
+          <t>Oberleutnant von Stein</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -6469,12 +6516,16 @@
       <c r="D31" t="n">
         <v>0</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Ltn. v. Stegmann und Stein</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A. Sachs</t>
+          <t>Prof. Dr. Sjästedt</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -6491,7 +6542,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>H. Schalow</t>
+          <t>Kreistierarzt S. Tiarks</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -6508,7 +6559,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hauptmann Stieber</t>
+          <t>Prof. Dr. Vossler</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -6525,7 +6576,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Oberleutnant von Stein</t>
+          <t>Diehl</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -6539,14 +6590,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ltn. v. Stegmann und Stein</t>
+          <t>A. Diehl</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Prof. Dr. Sjästedt</t>
+          <t>Langheld</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -6558,12 +6609,16 @@
       <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Major Langheld; F. Langheld; Hauptmann Langheld</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kreistierarzt S. Tiarks</t>
+          <t>Leutnant von Oertzen</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -6575,12 +6630,16 @@
       <c r="D37" t="n">
         <v>0</v>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Oberleutnant von Oertzen</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Prof. Dr. Vossler</t>
+          <t>Hauptmann von Restorff</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -6597,7 +6656,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Frobenius</t>
+          <t>Scheunemann</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -6609,7 +6668,49 @@
       <c r="D39" t="n">
         <v>0</v>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Hauptmann Scheunemann; Oberleutnant Scheunemann</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Zenker</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Gustav Zenker; G. Zenker</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rosenberg</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6622,7 +6723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6675,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -6689,7 +6790,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -6702,11 +6803,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E. Heims</t>
+          <t>Leutnant Jacob</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -6716,39 +6817,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ernst Heims; Tiermaler Heims</t>
+          <t>Oberleutnant Jacob</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leutnant Jacob</t>
+          <t>Paschen</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oberleutnant Jacob</t>
+          <t>H. Paschen</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Paschen</t>
+          <t>Ziemann</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -6758,18 +6859,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>H. Paschen</t>
+          <t>Dr. Ziemann; Prof. Dr. Ziemann</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Oberleutnant Adamez</t>
+          <t>Oberarzt Freyer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -6777,16 +6878,20 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Stabsarzt Dr. Freyer; Oberarzt Dr. Freyer</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dr. Stolowsky</t>
+          <t>Glauning</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -6794,16 +6899,20 @@
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hauptmann Glauning</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Oberleutnant Adametz</t>
+          <t>Heims</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -6811,33 +6920,41 @@
       <c r="D9" t="n">
         <v>0</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>E. Heims; Ernst Heims; Tiermaler Heims</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Stabsarzt Dr. Freyer</t>
+          <t>Zenker</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gustav Zenker; G. Zenker</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Forster</t>
+          <t>Oberleutnant Adametz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6845,16 +6962,12 @@
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Hauptmann Forster</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Glauning</t>
+          <t>Oberleutnant Adamez</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6866,16 +6979,12 @@
       <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Hauptmann Glauning</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dr. Haberer</t>
+          <t>Dr. Stolowsky</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -6887,16 +6996,12 @@
       <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Regierungsrat Professor Dr. Haberer</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hösemann</t>
+          <t>Leutnant Trefurth</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -6908,16 +7013,12 @@
       <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Dr. Hösemann</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bezirksamtmann Krücke</t>
+          <t>Stift</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6929,12 +7030,16 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bauleiter Stift</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Leutnant von Oertzen</t>
+          <t>Dr. v. Faber</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6946,16 +7051,12 @@
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Oberleutnant von Oertzen</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Riegler</t>
+          <t>Forster</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6969,14 +7070,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dr. Riegler</t>
+          <t>Hauptmann Forster</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hauptmann Strümpell</t>
+          <t>Dr. Haberer</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6990,14 +7091,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oberleutnant Strümpell</t>
+          <t>Regierungsrat Professor Dr. Haberer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>F. Ulrich</t>
+          <t>Hösemann</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7009,12 +7110,16 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Dr. Hösemann</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Zenker</t>
+          <t>Bezirksamtmann Krücke</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7026,11 +7131,87 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Gustav Zenker; G. Zenker</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Leutnant von Oertzen</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Oberleutnant von Oertzen</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Riegler</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Dr. Riegler</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hauptmann Strümpell</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Oberleutnant Strümpell</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>F. Ulrich</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8242,7 +8423,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Preuss</t>
+          <t>Conradt</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -8256,14 +8437,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dr. Preuss; Dr. P. Preuss</t>
+          <t>L. Conradt</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Conradt</t>
+          <t>Preuss</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -8277,7 +8458,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>L. Conradt</t>
+          <t>Dr. Preuss; Dr. P. Preuss</t>
         </is>
       </c>
     </row>
@@ -8393,40 +8574,40 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>von Carnap</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Lieutenant von Carnap</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>von Carnap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Lieutenant von Carnap</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
